--- a/PLAN.xlsx
+++ b/PLAN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="35">
   <si>
     <t>Content</t>
   </si>
@@ -74,6 +74,51 @@
   </si>
   <si>
     <t xml:space="preserve">Sync. Github Repo and Azure Cloud-Shell via SSH </t>
+  </si>
+  <si>
+    <t>Create Makefile/ requirements.txt</t>
+  </si>
+  <si>
+    <t>Run Local Test</t>
+  </si>
+  <si>
+    <t>Configure Github Actions</t>
+  </si>
+  <si>
+    <t>Start Webapp and Make Prediction</t>
+  </si>
+  <si>
+    <t>Establish Pipeline</t>
+  </si>
+  <si>
+    <t>Checking Pipeline (Making Modifications)</t>
+  </si>
+  <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main OS is Win10; WSL with ubuntu used  </t>
+  </si>
+  <si>
+    <t>04.01.2021 - 05.01.2021</t>
+  </si>
+  <si>
+    <t>06.01.2021 - 07.01.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create Readme </t>
+  </si>
+  <si>
+    <t>Create Video</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check all Files </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submit </t>
   </si>
 </sst>
 </file>
@@ -426,20 +471,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.5703125" customWidth="1"/>
-    <col min="2" max="2" width="45.42578125" customWidth="1"/>
+    <col min="2" max="2" width="56.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -452,112 +498,242 @@
       <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="C6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
         <v>13</v>
       </c>
     </row>

--- a/PLAN.xlsx
+++ b/PLAN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="39">
   <si>
     <t>Content</t>
   </si>
@@ -119,6 +119,18 @@
   </si>
   <si>
     <t xml:space="preserve">Submit </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - End of January </t>
+  </si>
+  <si>
+    <t>Further Ideas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create Branches </t>
+  </si>
+  <si>
+    <t>Ignore Files in Github Actions</t>
   </si>
 </sst>
 </file>
@@ -471,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,6 +749,24 @@
         <v>13</v>
       </c>
     </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
